--- a/ARVN.xlsx
+++ b/ARVN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1383A971-0774-4DA4-BEA6-74C97BB1E448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABBF3EA-FA18-414A-96C5-B41CE480EDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15260" yWindow="1060" windowWidth="23220" windowHeight="16580" xr2:uid="{42FAB0B8-B3B6-46D2-8C7D-223F0B68CFEB}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{42FAB0B8-B3B6-46D2-8C7D-223F0B68CFEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="97">
   <si>
     <t>Price</t>
   </si>
@@ -138,12 +138,6 @@
     <t>Phase III "VERITAC-2" 2L ER+ mBC monotherapy - Q125 results</t>
   </si>
   <si>
-    <t>Phase Ib with Ibrance</t>
-  </si>
-  <si>
-    <t>13.9 months mPFS 200mg</t>
-  </si>
-  <si>
     <t>CMO: Noah Berkowitz</t>
   </si>
   <si>
@@ -157,19 +151,214 @@
   </si>
   <si>
     <t>ARV-766</t>
+  </si>
+  <si>
+    <t>Competition</t>
+  </si>
+  <si>
+    <t>NCT06645938</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>NCT06347861</t>
+  </si>
+  <si>
+    <t>NCT06275841</t>
+  </si>
+  <si>
+    <t>DDI</t>
+  </si>
+  <si>
+    <t>NCT06256510</t>
+  </si>
+  <si>
+    <t>NCT06206837</t>
+  </si>
+  <si>
+    <t>combination with PF-07220060</t>
+  </si>
+  <si>
+    <t>NCT06125522</t>
+  </si>
+  <si>
+    <t>NCT06005688</t>
+  </si>
+  <si>
+    <t>NCT05930925</t>
+  </si>
+  <si>
+    <t>NCT05909397</t>
+  </si>
+  <si>
+    <t>NCT05732428</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>NCT05673889</t>
+  </si>
+  <si>
+    <t>NCT05654623</t>
+  </si>
+  <si>
+    <t>NCT05652660</t>
+  </si>
+  <si>
+    <t>NCT05573555</t>
+  </si>
+  <si>
+    <t>NCT05549505</t>
+  </si>
+  <si>
+    <t>NCT05548127</t>
+  </si>
+  <si>
+    <t>NCT05538312</t>
+  </si>
+  <si>
+    <t>NCT05501769</t>
+  </si>
+  <si>
+    <t>NCT05463952</t>
+  </si>
+  <si>
+    <t>NCT04072952</t>
+  </si>
+  <si>
+    <t>with palbociclib</t>
+  </si>
+  <si>
+    <t>ARV-471, PF-07850327</t>
+  </si>
+  <si>
+    <t>Study Start: 8/5/2019</t>
+  </si>
+  <si>
+    <t>Phase Ib "TACTIVE-E" n=32 with everolimus</t>
+  </si>
+  <si>
+    <t>Japan, Phase I, 200mg with food in Japan. 4/6 progressive disease, 0 DLTs</t>
+  </si>
+  <si>
+    <t>TACTIVE-U C (samuraciclib)</t>
+  </si>
+  <si>
+    <t>TACTIVE-U B (ribociclib)</t>
+  </si>
+  <si>
+    <t>TACTIVE-U A (abemaciclib)</t>
+  </si>
+  <si>
+    <t>December 2023 (SABCS) update:</t>
+  </si>
+  <si>
+    <t>CBR: 63%, ORR: 42%, mPFS 11.2mo</t>
+  </si>
+  <si>
+    <t>5/16/24 (ESMO Breast 2024) update: 13.9 months mPFS at 200mg, the recommended Phase III dose</t>
+  </si>
+  <si>
+    <t>Phase Ib "ARV-471-mBC-101" with Ibrance n=46 or n=217  - NCT04072952</t>
+  </si>
+  <si>
+    <t>"heavily pre-treated": median 4 prior therapies, 3 in metastatic setting, 87% prior CDK4/6, 80% prior fulvestrant, 48% chemo in metastatic setting</t>
+  </si>
+  <si>
+    <t>n=29 mutant ESR1: 72% CBR</t>
+  </si>
+  <si>
+    <t>n=15 wild-type ESR1: 53% CBR</t>
+  </si>
+  <si>
+    <t>n=21 200mg, CBR 67%, mutant ESR1: 79% (n=14), wildtype: 43% (n=7)</t>
+  </si>
+  <si>
+    <t>n=2 180mg</t>
+  </si>
+  <si>
+    <t>n=3 400mg, n=20 500mg</t>
+  </si>
+  <si>
+    <t>All dosing 21 days on, 7 days off.</t>
+  </si>
+  <si>
+    <t>5/16/24: Phase 1n combination data update.</t>
+  </si>
+  <si>
+    <t>Phase III "VERITAC-2" 2L monotherapy</t>
+  </si>
+  <si>
+    <t>Phase III "VERITAC-3" 1L with palbociclib vs. letrozole+palbociclib</t>
+  </si>
+  <si>
+    <t>neoadjuvant vs. anastrozole?</t>
+  </si>
+  <si>
+    <t>Phase I portion was 40% CBR n=47, only 3 PRs?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ER driver of breast cancer in 75% of cases.</t>
+  </si>
+  <si>
+    <t>imlunestrant, camizestrant, amcenestrant, fulvestrant.</t>
+  </si>
+  <si>
+    <t>fulvestrant binds and immobilizes the ER, but only 50-60% degradation, partially because of poor PK (IM administration)</t>
+  </si>
+  <si>
+    <t>Estrogen Receptor PROTAC (cereblon)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &gt;80% degradation within 4 hours</t>
+  </si>
+  <si>
+    <t>PALBOCOMP</t>
+  </si>
+  <si>
+    <t>46% CBR, 6.0m PFS</t>
+  </si>
+  <si>
+    <t>PALOMA-3</t>
+  </si>
+  <si>
+    <t>9.2m PFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  lasofoxifene scaffold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -195,6 +384,13 @@
     <font>
       <b/>
       <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -306,40 +502,51 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{5F20A0BB-6CDD-4244-AEE2-8221B13FF902}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -349,6 +556,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>644458</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>124315</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>89171</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79F39A8-EC26-393C-E96E-2F21FB301284}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4494990" y="190502"/>
+          <a:ext cx="1952304" cy="1357818"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -670,70 +926,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC6589E-B915-4275-A5C3-EC7A441168EF}">
   <dimension ref="B2:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.90625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="1"/>
-    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="5.1796875" style="1" customWidth="1"/>
-    <col min="11" max="13" width="2.453125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" customWidth="1"/>
+    <col min="7" max="10" width="5.140625" style="1" customWidth="1"/>
+    <col min="11" max="13" width="2.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
       <c r="N2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O2" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+        <v>20.14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
+      <c r="J3" s="6"/>
       <c r="N3" s="1" t="s">
         <v>1</v>
       </c>
@@ -744,50 +997,44 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
+      <c r="F4" s="14"/>
+      <c r="J4" s="6"/>
       <c r="N4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O4" s="3">
         <f>+O2*O3</f>
-        <v>1236.8339999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+        <v>1383.8798199999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7"/>
+      <c r="F5" s="14"/>
+      <c r="J5" s="6"/>
       <c r="N5" s="1" t="s">
         <v>3</v>
       </c>
@@ -799,20 +1046,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
+      <c r="F6" s="14"/>
+      <c r="J6" s="6"/>
       <c r="N6" s="1" t="s">
         <v>4</v>
       </c>
@@ -823,105 +1066,111 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
+      <c r="F7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="6"/>
       <c r="N7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="O7" s="3">
         <f>+O4-O5+O6</f>
-        <v>115.83399999999969</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+        <v>262.87981999999977</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
       <c r="N9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="N10" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="H15" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" location="vepdegestrant!A1" display="vepdegestrant" xr:uid="{1A06BA32-2A5C-4320-94A4-CF030FC0E260}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1475BBAE-3F5F-4B39-A5E7-79F1DE9F5C70}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.7109375" style="1"/>
+    <col min="8" max="8" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
@@ -929,42 +1178,455 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="C5" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="19"/>
+      <c r="C11" s="24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="C8" s="17" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="C12" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
-        <v>34</v>
+      <c r="H13" s="1">
+        <v>26075522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H14" s="1">
+        <v>35923930</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H15" s="1">
+        <v>32829249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H16" s="1">
+        <v>31780851</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C17" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="1">
+        <v>39585895</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C18" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="1">
+        <v>35042991</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C19" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="1">
+        <v>34212149</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C20" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="1">
+        <v>35671157</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C21" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="1">
+        <v>33839157</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C22" s="19"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C23" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C24" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C25" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C27" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C29" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C30" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C32" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="21">
+        <v>45581</v>
+      </c>
+      <c r="F32" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C33" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="21">
+        <v>45384</v>
+      </c>
+      <c r="F33" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C34" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="21">
+        <v>45345</v>
+      </c>
+      <c r="F34" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C35" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="21">
+        <v>45330</v>
+      </c>
+      <c r="F35" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C36" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="21">
+        <v>45156</v>
+      </c>
+      <c r="F36" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C37" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="21">
+        <v>45089</v>
+      </c>
+      <c r="F37" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C38" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="21">
+        <v>44953</v>
+      </c>
+      <c r="F38" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C39" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="21">
+        <v>44904</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C40" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="21">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+    </row>
+    <row r="45" spans="3:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="22">
+        <v>44988</v>
+      </c>
+      <c r="F45" s="20">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C46" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="22">
+        <v>45147</v>
+      </c>
+      <c r="F46" s="20">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C47" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="21">
+        <v>44972</v>
+      </c>
+      <c r="F47" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C48" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="21">
+        <v>43682</v>
+      </c>
+      <c r="F48" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C54" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="21">
+        <v>44977</v>
+      </c>
+      <c r="F54" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C55" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="21">
+        <v>44789</v>
+      </c>
+      <c r="F55" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C56" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="21">
+        <v>44986</v>
+      </c>
+      <c r="F56" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C57" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" s="21">
+        <v>45301</v>
+      </c>
+      <c r="F57" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C58" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" s="21">
+        <v>44980</v>
+      </c>
+      <c r="F58" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C59" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" s="21">
+        <v>45341</v>
+      </c>
+      <c r="F59" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C60" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" s="21">
+        <v>44812</v>
+      </c>
+      <c r="F60" s="1">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -972,5 +1634,6 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{27B7B2F6-2E6A-42EF-9692-C507C1939617}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ARVN.xlsx
+++ b/ARVN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABBF3EA-FA18-414A-96C5-B41CE480EDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491D5F24-EA5E-4979-A107-BC4BED5277AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{42FAB0B8-B3B6-46D2-8C7D-223F0B68CFEB}"/>
+    <workbookView xWindow="-26055" yWindow="3630" windowWidth="26085" windowHeight="17160" xr2:uid="{42FAB0B8-B3B6-46D2-8C7D-223F0B68CFEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q324</t>
-  </si>
-  <si>
     <t>CEO: John Houston</t>
   </si>
   <si>
@@ -328,19 +325,28 @@
   </si>
   <si>
     <t xml:space="preserve">  lasofoxifene scaffold</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -502,42 +508,42 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -926,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC6589E-B915-4275-A5C3-EC7A441168EF}">
   <dimension ref="B2:P17"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -944,189 +950,189 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
+      <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
       <c r="N2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O2" s="2">
-        <v>20.14</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B3" s="17" t="s">
-        <v>9</v>
+      <c r="B3" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="6"/>
+      <c r="E3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="5"/>
       <c r="N3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O3" s="3">
-        <v>68.712999999999994</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>6</v>
+        <v>68.8</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="J4" s="6"/>
+      <c r="E4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="J4" s="5"/>
       <c r="N4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O4" s="3">
         <f>+O2*O3</f>
-        <v>1383.8798199999999</v>
+        <v>521.50400000000002</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="J5" s="6"/>
+      <c r="E5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="J5" s="5"/>
       <c r="N5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="O5" s="3">
-        <f>85.2+1036.4</f>
-        <v>1121.6000000000001</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>6</v>
+        <f>100.5+938.9</f>
+        <v>1039.4000000000001</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
+      <c r="B6" s="4"/>
       <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="J6" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="J6" s="5"/>
       <c r="N6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="3">
         <v>0.6</v>
       </c>
-      <c r="P6" s="4" t="s">
-        <v>6</v>
+      <c r="P6" s="24" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="6"/>
+      <c r="J7" s="5"/>
       <c r="N7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="O7" s="3">
         <f>+O4-O5+O6</f>
-        <v>262.87981999999977</v>
+        <v>-517.29600000000005</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
-        <v>37</v>
+      <c r="B8" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="6"/>
+      <c r="F8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
       <c r="N9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="N10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="H15" s="19" t="s">
-        <v>82</v>
+      <c r="H15" s="18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1141,9 +1147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1475BBAE-3F5F-4B39-A5E7-79F1DE9F5C70}">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1158,84 +1162,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>25</v>
+      <c r="A1" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>64</v>
+        <v>25</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="24" t="s">
-        <v>91</v>
-      </c>
-    </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="24" t="s">
-        <v>96</v>
+      <c r="C8" s="23" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="24" t="s">
+      <c r="B10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="18"/>
+      <c r="C11" s="23" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="19"/>
-      <c r="C11" s="24" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C13" s="16" t="s">
-        <v>32</v>
+      <c r="C13" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="H13" s="1">
         <v>26075522</v>
@@ -1257,104 +1261,104 @@
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C17" s="16" t="s">
-        <v>74</v>
+      <c r="C17" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="H17" s="1">
         <v>39585895</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C18" s="19" t="s">
-        <v>65</v>
+      <c r="C18" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="H18" s="1">
         <v>35042991</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C19" s="19" t="s">
-        <v>75</v>
+      <c r="C19" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="H19" s="1">
         <v>34212149</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C20" s="20" t="s">
-        <v>73</v>
+      <c r="C20" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="H20" s="1">
         <v>35671157</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C21" s="19" t="s">
-        <v>71</v>
+      <c r="C21" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="H21" s="1">
         <v>33839157</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C22" s="19"/>
+      <c r="C22" s="18"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C23" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="19" t="s">
+      <c r="C23" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C24" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C24" s="19" t="s">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C25" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F25" s="18" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C25" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="19" t="s">
+      <c r="I25" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="I25" s="19" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C27" s="23" t="s">
-        <v>86</v>
+      <c r="C27" s="22" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C30" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E30" s="23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C30" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>95</v>
-      </c>
-    </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="21">
+      <c r="E32" s="20">
         <v>45581</v>
       </c>
       <c r="F32" s="1">
@@ -1362,13 +1366,13 @@
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C33" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="19" t="s">
+      <c r="C33" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="21">
+      <c r="D33" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="20">
         <v>45384</v>
       </c>
       <c r="F33" s="1">
@@ -1376,13 +1380,13 @@
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="21">
+      <c r="E34" s="20">
         <v>45345</v>
       </c>
       <c r="F34" s="1">
@@ -1390,13 +1394,13 @@
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C35" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="19" t="s">
+      <c r="C35" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="21">
+      <c r="D35" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="20">
         <v>45330</v>
       </c>
       <c r="F35" s="1">
@@ -1404,13 +1408,13 @@
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C36" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="21">
+      <c r="C36" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="20">
         <v>45156</v>
       </c>
       <c r="F36" s="1">
@@ -1418,13 +1422,13 @@
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C37" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="21">
+      <c r="C37" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="20">
         <v>45089</v>
       </c>
       <c r="F37" s="1">
@@ -1432,13 +1436,13 @@
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C38" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="21">
+      <c r="C38" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="20">
         <v>44953</v>
       </c>
       <c r="F38" s="1">
@@ -1446,71 +1450,71 @@
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C39" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="21">
+      <c r="C39" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="20">
         <v>44904</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C40" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="21">
+      <c r="C40" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="20">
         <v>44980</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-    </row>
-    <row r="45" spans="3:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="20" t="s">
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+    </row>
+    <row r="45" spans="3:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="21">
+        <v>44988</v>
+      </c>
+      <c r="F45" s="19">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C46" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="22">
-        <v>44988</v>
-      </c>
-      <c r="F45" s="20">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C46" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="20" t="s">
+      <c r="E46" s="21">
+        <v>45147</v>
+      </c>
+      <c r="F46" s="19">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C47" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E46" s="22">
-        <v>45147</v>
-      </c>
-      <c r="F46" s="20">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C47" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" s="21">
+      <c r="E47" s="20">
         <v>44972</v>
       </c>
       <c r="F47" s="1">
@@ -1518,13 +1522,13 @@
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48" s="21">
+      <c r="E48" s="20">
         <v>43682</v>
       </c>
       <c r="F48" s="1">
@@ -1532,13 +1536,13 @@
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D54" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E54" s="21">
+      <c r="E54" s="20">
         <v>44977</v>
       </c>
       <c r="F54" s="1">
@@ -1546,13 +1550,13 @@
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C55" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D55" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55" s="21">
+      <c r="C55" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" s="20">
         <v>44789</v>
       </c>
       <c r="F55" s="1">
@@ -1560,13 +1564,13 @@
       </c>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C56" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E56" s="21">
+      <c r="C56" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" s="20">
         <v>44986</v>
       </c>
       <c r="F56" s="1">
@@ -1574,13 +1578,13 @@
       </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C57" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E57" s="21">
+      <c r="C57" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E57" s="20">
         <v>45301</v>
       </c>
       <c r="F57" s="1">
@@ -1588,13 +1592,13 @@
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C58" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E58" s="21">
+      <c r="C58" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="20">
         <v>44980</v>
       </c>
       <c r="F58" s="1">
@@ -1602,13 +1606,13 @@
       </c>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C59" s="19" t="s">
+      <c r="C59" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D59" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E59" s="21">
+      <c r="E59" s="20">
         <v>45341</v>
       </c>
       <c r="F59" s="1">
@@ -1616,13 +1620,13 @@
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C60" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E60" s="21">
+      <c r="C60" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E60" s="20">
         <v>44812</v>
       </c>
       <c r="F60" s="1">

--- a/ARVN.xlsx
+++ b/ARVN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491D5F24-EA5E-4979-A107-BC4BED5277AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3E9ED0-B4AD-49C9-8575-089DAB32BAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26055" yWindow="3630" windowWidth="26085" windowHeight="17160" xr2:uid="{42FAB0B8-B3B6-46D2-8C7D-223F0B68CFEB}"/>
+    <workbookView xWindow="13370" yWindow="2520" windowWidth="22940" windowHeight="15380" xr2:uid="{42FAB0B8-B3B6-46D2-8C7D-223F0B68CFEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="99">
   <si>
     <t>Price</t>
   </si>
@@ -327,7 +327,13 @@
     <t xml:space="preserve">  lasofoxifene scaffold</t>
   </si>
   <si>
-    <t>Q424</t>
+    <t>ARV-110</t>
+  </si>
+  <si>
+    <t>mCRPC</t>
+  </si>
+  <si>
+    <t>Q125</t>
   </si>
 </sst>
 </file>
@@ -510,14 +516,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -544,6 +549,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -932,52 +940,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC6589E-B915-4275-A5C3-EC7A441168EF}">
   <dimension ref="B2:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" customWidth="1"/>
-    <col min="7" max="10" width="5.140625" style="1" customWidth="1"/>
-    <col min="11" max="13" width="2.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="4.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="1"/>
+    <col min="6" max="6" width="11.7265625" style="1" customWidth="1"/>
+    <col min="7" max="10" width="5.1796875" style="1" customWidth="1"/>
+    <col min="11" max="13" width="2.453125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
       <c r="N2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O2" s="2">
-        <v>7.58</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B3" s="16" t="s">
+        <v>7.74</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -986,10 +994,10 @@
       <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>29</v>
       </c>
       <c r="J3" s="5"/>
@@ -997,13 +1005,13 @@
         <v>1</v>
       </c>
       <c r="O3" s="3">
-        <v>68.8</v>
-      </c>
-      <c r="P3" s="24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+        <v>72.991389999999996</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1013,20 +1021,20 @@
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="12"/>
       <c r="J4" s="5"/>
       <c r="N4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O4" s="3">
         <f>+O2*O3</f>
-        <v>521.50400000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+        <v>564.9533586</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1036,53 +1044,53 @@
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="12"/>
       <c r="J5" s="5"/>
       <c r="N5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="O5" s="3">
-        <f>100.5+938.9</f>
-        <v>1039.4000000000001</v>
-      </c>
-      <c r="P5" s="24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+        <f>81+873.3</f>
+        <v>954.3</v>
+      </c>
+      <c r="P5" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="12"/>
       <c r="J6" s="5"/>
       <c r="N6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="P6" s="24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>34</v>
       </c>
       <c r="J7" s="5"/>
@@ -1091,46 +1099,53 @@
       </c>
       <c r="O7" s="3">
         <f>+O4-O5+O6</f>
-        <v>-517.29600000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+        <v>-388.84664139999995</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>34</v>
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
       <c r="N9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="N10" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="H15" s="18" t="s">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D12" s="26"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="H15" s="17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H17" s="1" t="s">
         <v>30</v>
       </c>
@@ -1149,32 +1164,32 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.7109375" style="1"/>
-    <col min="8" max="8" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="4.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.7265625" style="1"/>
+    <col min="8" max="8" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1182,35 +1197,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="23" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="23" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="22" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="23" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1218,415 +1233,415 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="18" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="18"/>
-      <c r="C11" s="23" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="17"/>
+      <c r="C11" s="22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C13" s="15" t="s">
+    <row r="13" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="C13" s="14" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="1">
         <v>26075522</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H14" s="1">
         <v>35923930</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H15" s="1">
         <v>32829249</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H16" s="1">
         <v>31780851</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C17" s="15" t="s">
+    <row r="17" spans="3:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="C17" s="14" t="s">
         <v>73</v>
       </c>
       <c r="H17" s="1">
         <v>39585895</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C18" s="18" t="s">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="17" t="s">
         <v>64</v>
       </c>
       <c r="H18" s="1">
         <v>35042991</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C19" s="18" t="s">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="17" t="s">
         <v>74</v>
       </c>
       <c r="H19" s="1">
         <v>34212149</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C20" s="19" t="s">
+    <row r="20" spans="3:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="C20" s="18" t="s">
         <v>72</v>
       </c>
       <c r="H20" s="1">
         <v>35671157</v>
       </c>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C21" s="18" t="s">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="17" t="s">
         <v>70</v>
       </c>
       <c r="H21" s="1">
         <v>33839157</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C22" s="18"/>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C23" s="19" t="s">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" spans="3:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="C23" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C24" s="18" t="s">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C25" s="18" t="s">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="I25" s="18" t="s">
+      <c r="I25" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C27" s="22" t="s">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C29" s="15" t="s">
+    <row r="29" spans="3:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="C29" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C30" s="23" t="s">
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C32" s="18" t="s">
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="19">
         <v>45581</v>
       </c>
       <c r="F32" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C33" s="18" t="s">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="19">
         <v>45384</v>
       </c>
       <c r="F33" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C34" s="18" t="s">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="19">
         <v>45345</v>
       </c>
       <c r="F34" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C35" s="18" t="s">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="19">
         <v>45330</v>
       </c>
       <c r="F35" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C36" s="18" t="s">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="19">
         <v>45156</v>
       </c>
       <c r="F36" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C37" s="18" t="s">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="19">
         <v>45089</v>
       </c>
       <c r="F37" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C38" s="18" t="s">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="19">
         <v>44953</v>
       </c>
       <c r="F38" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C39" s="18" t="s">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E39" s="19">
         <v>44904</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C40" s="18" t="s">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="19">
         <v>44980</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-    </row>
-    <row r="45" spans="3:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="19" t="s">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+    </row>
+    <row r="45" spans="3:6" s="18" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="C45" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="20">
         <v>44988</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F45" s="18">
         <v>624</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C46" s="19" t="s">
+    <row r="46" spans="3:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="C46" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="20">
         <v>45147</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46" s="18">
         <v>1180</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C47" s="18" t="s">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="19">
         <v>44972</v>
       </c>
       <c r="F47" s="1">
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C48" s="18" t="s">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="19">
         <v>43682</v>
       </c>
       <c r="F48" s="1">
         <v>217</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C54" s="18" t="s">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="19">
         <v>44977</v>
       </c>
       <c r="F54" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C55" s="18" t="s">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="19">
         <v>44789</v>
       </c>
       <c r="F55" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C56" s="18" t="s">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C56" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="19">
         <v>44986</v>
       </c>
       <c r="F56" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C57" s="18" t="s">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C57" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E57" s="19">
         <v>45301</v>
       </c>
       <c r="F57" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C58" s="18" t="s">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C58" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E58" s="19">
         <v>44980</v>
       </c>
       <c r="F58" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C59" s="18" t="s">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C59" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D59" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="19">
         <v>45341</v>
       </c>
       <c r="F59" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C60" s="18" t="s">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C60" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E60" s="20">
+      <c r="E60" s="19">
         <v>44812</v>
       </c>
       <c r="F60" s="1">
